--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9036141564088669</v>
+        <v>0.877485834093231</v>
       </c>
       <c r="D2">
-        <v>0.8847612688681843</v>
+        <v>0.9071886033732404</v>
       </c>
       <c r="E2">
-        <v>0.1740433010907589</v>
+        <v>0.08145768007930565</v>
       </c>
       <c r="F2">
-        <v>0.6349923818031531</v>
+        <v>0.6846860865651805</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9036141564088669</v>
+        <v>0.877485834093231</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9572830253296831</v>
+        <v>0.9669965261226461</v>
       </c>
       <c r="E3">
-        <v>0.1212328170283772</v>
+        <v>0.1798736687265376</v>
       </c>
       <c r="F3">
-        <v>0.5202197716027839</v>
+        <v>0.6115526131609865</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8847612688681843</v>
+        <v>0.9071886033732404</v>
       </c>
       <c r="C4">
-        <v>0.9572830253296831</v>
+        <v>0.9669965261226461</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1695804807069461</v>
+        <v>0.2635985529173064</v>
       </c>
       <c r="F4">
-        <v>0.405769344014745</v>
+        <v>0.5441154283809615</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1740433010907589</v>
+        <v>0.08145768007930565</v>
       </c>
       <c r="C5">
-        <v>0.1212328170283772</v>
+        <v>0.1798736687265376</v>
       </c>
       <c r="D5">
-        <v>0.1695804807069461</v>
+        <v>0.2635985529173064</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.03198237980414875</v>
+        <v>0.1325013132211668</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6349923818031531</v>
+        <v>0.6846860865651805</v>
       </c>
       <c r="C6">
-        <v>0.5202197716027839</v>
+        <v>0.6115526131609865</v>
       </c>
       <c r="D6">
-        <v>0.405769344014745</v>
+        <v>0.5441154283809615</v>
       </c>
       <c r="E6">
-        <v>0.03198237980414875</v>
+        <v>0.1325013132211668</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1211612094293917</v>
+        <v>-0.1570009207322911</v>
       </c>
       <c r="D2">
-        <v>-0.1450134255562091</v>
+        <v>-0.1187138716353724</v>
       </c>
       <c r="E2">
-        <v>-1.361349468307896</v>
+        <v>-1.87739438195806</v>
       </c>
       <c r="F2">
-        <v>0.4750155772596396</v>
+        <v>0.4146440492352215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1211612094293917</v>
+        <v>0.1570009207322911</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.05359143322895939</v>
+        <v>-0.04212169814505921</v>
       </c>
       <c r="E3">
-        <v>-1.552375584410348</v>
+        <v>-1.411710068743981</v>
       </c>
       <c r="F3">
-        <v>0.6434813302387946</v>
+        <v>0.519463113448287</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1450134255562091</v>
+        <v>0.1187138716353724</v>
       </c>
       <c r="C4">
-        <v>0.05359143322895939</v>
+        <v>0.04212169814505921</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.375625630680329</v>
+        <v>-1.164712882309042</v>
       </c>
       <c r="F4">
-        <v>0.8320960971785673</v>
+        <v>0.6217241858030794</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.361349468307896</v>
+        <v>1.87739438195806</v>
       </c>
       <c r="C5">
-        <v>1.552375584410348</v>
+        <v>1.411710068743981</v>
       </c>
       <c r="D5">
-        <v>1.375625630680329</v>
+        <v>1.164712882309042</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.150916174865793</v>
+        <v>1.597372237729202</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4750155772596396</v>
+        <v>-0.4146440492352215</v>
       </c>
       <c r="C6">
-        <v>-0.6434813302387946</v>
+        <v>-0.519463113448287</v>
       </c>
       <c r="D6">
-        <v>-0.8320960971785673</v>
+        <v>-0.6217241858030794</v>
       </c>
       <c r="E6">
-        <v>-2.150916174865793</v>
+        <v>-1.597372237729202</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.877485834093231</v>
+        <v>0.639807210825351</v>
       </c>
       <c r="D2">
-        <v>0.9071886033732404</v>
+        <v>0.5184794458090791</v>
       </c>
       <c r="E2">
-        <v>0.08145768007930565</v>
+        <v>0.9043592923776744</v>
       </c>
       <c r="F2">
-        <v>0.6846860865651805</v>
+        <v>0.6339850845027066</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.877485834093231</v>
+        <v>0.639807210825351</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9669965261226461</v>
+        <v>0.9286636704628148</v>
       </c>
       <c r="E3">
-        <v>0.1798736687265376</v>
+        <v>0.8099891767519551</v>
       </c>
       <c r="F3">
-        <v>0.6115526131609865</v>
+        <v>0.9281254672097279</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9071886033732404</v>
+        <v>0.5184794458090791</v>
       </c>
       <c r="C4">
-        <v>0.9669965261226461</v>
+        <v>0.9286636704628148</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2635985529173064</v>
+        <v>0.5684726652306678</v>
       </c>
       <c r="F4">
-        <v>0.5441154283809615</v>
+        <v>0.8198734443872666</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08145768007930565</v>
+        <v>0.9043592923776744</v>
       </c>
       <c r="C5">
-        <v>0.1798736687265376</v>
+        <v>0.8099891767519551</v>
       </c>
       <c r="D5">
-        <v>0.2635985529173064</v>
+        <v>0.5684726652306678</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1325013132211668</v>
+        <v>0.8585706693144366</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6846860865651805</v>
+        <v>0.6339850845027066</v>
       </c>
       <c r="C6">
-        <v>0.6115526131609865</v>
+        <v>0.9281254672097279</v>
       </c>
       <c r="D6">
-        <v>0.5441154283809615</v>
+        <v>0.8198734443872666</v>
       </c>
       <c r="E6">
-        <v>0.1325013132211668</v>
+        <v>0.8585706693144366</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1570009207322911</v>
+        <v>0.4745174771798528</v>
       </c>
       <c r="D2">
-        <v>-0.1187138716353724</v>
+        <v>0.6562332895866207</v>
       </c>
       <c r="E2">
-        <v>-1.87739438195806</v>
+        <v>0.1215493997861788</v>
       </c>
       <c r="F2">
-        <v>0.4146440492352215</v>
+        <v>0.4828317329163418</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1570009207322911</v>
+        <v>-0.4745174771798528</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04212169814505921</v>
+        <v>0.0905574757383079</v>
       </c>
       <c r="E3">
-        <v>-1.411710068743981</v>
+        <v>-0.2433497904041597</v>
       </c>
       <c r="F3">
-        <v>0.519463113448287</v>
+        <v>-0.09124267232209886</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1187138716353724</v>
+        <v>-0.6562332895866207</v>
       </c>
       <c r="C4">
-        <v>0.04212169814505921</v>
+        <v>-0.0905574757383079</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.164712882309042</v>
+        <v>-0.5789969779976958</v>
       </c>
       <c r="F4">
-        <v>0.6217241858030794</v>
+        <v>-0.2304475517295975</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.87739438195806</v>
+        <v>-0.1215493997861788</v>
       </c>
       <c r="C5">
-        <v>1.411710068743981</v>
+        <v>0.2433497904041597</v>
       </c>
       <c r="D5">
-        <v>1.164712882309042</v>
+        <v>0.5789969779976958</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.597372237729202</v>
+        <v>0.18029600529812</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4146440492352215</v>
+        <v>-0.4828317329163418</v>
       </c>
       <c r="C6">
-        <v>-0.519463113448287</v>
+        <v>0.09124267232209886</v>
       </c>
       <c r="D6">
-        <v>-0.6217241858030794</v>
+        <v>0.2304475517295975</v>
       </c>
       <c r="E6">
-        <v>-1.597372237729202</v>
+        <v>-0.18029600529812</v>
       </c>
       <c r="F6">
         <v>0</v>
